--- a/Project Plan/Project Schedule.xlsx
+++ b/Project Plan/Project Schedule.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE577035-C3DF-4CAA-B505-932644D35AF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E246F6-F462-4BC1-AA76-A0DD59BEB270}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1120,8 +1120,8 @@
   </sheetPr>
   <dimension ref="A2:AT36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1486,10 +1486,14 @@
       <c r="D13" s="16">
         <v>1</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
+      <c r="E13" s="16">
+        <v>3</v>
+      </c>
+      <c r="F13" s="16">
+        <v>1</v>
+      </c>
       <c r="G13" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
@@ -1560,10 +1564,14 @@
       <c r="D15" s="16">
         <v>1</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
+      <c r="E15" s="16">
+        <v>2</v>
+      </c>
+      <c r="F15" s="16">
+        <v>1</v>
+      </c>
       <c r="G15" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
@@ -1597,10 +1605,14 @@
       <c r="D16" s="16">
         <v>1</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
+      <c r="E16" s="16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="16">
+        <v>1</v>
+      </c>
       <c r="G16" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
@@ -1634,10 +1646,14 @@
       <c r="D17" s="16">
         <v>1</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
+      <c r="E17" s="16">
+        <v>3</v>
+      </c>
+      <c r="F17" s="16">
+        <v>1</v>
+      </c>
       <c r="G17" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="21"/>
       <c r="J17" s="21"/>

--- a/Project Plan/Project Schedule.xlsx
+++ b/Project Plan/Project Schedule.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E246F6-F462-4BC1-AA76-A0DD59BEB270}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B85A4B-98C3-4AD9-A1BD-D192A986858E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="project (2)" sheetId="3" r:id="rId1"/>
@@ -1121,7 +1121,7 @@
   <dimension ref="A2:AT36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1798,10 +1798,14 @@
       <c r="D21" s="16">
         <v>1</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
+      <c r="E21" s="16">
+        <v>1</v>
+      </c>
+      <c r="F21" s="16">
+        <v>1</v>
+      </c>
       <c r="G21" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
